--- a/01 - Automatização Web - Busca de Preços/buscas.xlsx
+++ b/01 - Automatização Web - Busca de Preços/buscas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Downloads\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\estudos\python\01 - Automatização Web - Busca de Preços\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42EEB8-E014-4F6F-8E3A-37E95301BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68C614-AB74-41F5-81BB-11D80D6FB1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>rtx 3060</t>
   </si>
   <si>
-    <t>iphone 12 64gb</t>
+    <t>iphone 12 64 gb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +109,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C53766B1-A574-43F0-8F82-9F0920D2B57F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,18 +423,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.578125" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" customWidth="1"/>
-    <col min="3" max="3" width="17.41796875" customWidth="1"/>
-    <col min="4" max="4" width="19.26171875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -460,7 +462,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/01 - Automatização Web - Busca de Preços/buscas.xlsx
+++ b/01 - Automatização Web - Busca de Preços/buscas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\estudos\python\01 - Automatização Web - Busca de Preços\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68C614-AB74-41F5-81BB-11D80D6FB1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758A3CD-EE07-4539-8EA1-B782B894A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,10 +456,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
